--- a/Code/Results/Cases/Case_0_211/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_211/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1493368903646939</v>
+        <v>0.04960438181704774</v>
       </c>
       <c r="D2">
-        <v>0.0536827454802733</v>
+        <v>0.1922055140664654</v>
       </c>
       <c r="E2">
-        <v>0.03045480255478306</v>
+        <v>0.1321776307253534</v>
       </c>
       <c r="F2">
-        <v>1.017130348716918</v>
+        <v>1.091459290066467</v>
       </c>
       <c r="G2">
-        <v>0.9348721519560002</v>
+        <v>0.6332093872325828</v>
       </c>
       <c r="H2">
-        <v>0.5151380321048578</v>
+        <v>0.6766019342329201</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02520124124842749</v>
+        <v>0.1242006871250769</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.620899360973837</v>
+        <v>1.062633181663088</v>
       </c>
       <c r="N2">
-        <v>4.101420435733672</v>
+        <v>1.813524949418252</v>
       </c>
       <c r="O2">
-        <v>3.012914949611002</v>
+        <v>2.605098433374792</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1290294208692018</v>
+        <v>0.04402263596996647</v>
       </c>
       <c r="D3">
-        <v>0.05575164155746215</v>
+        <v>0.1941193837986361</v>
       </c>
       <c r="E3">
-        <v>0.03335701688650983</v>
+        <v>0.1343682001590979</v>
       </c>
       <c r="F3">
-        <v>0.9092455082271584</v>
+        <v>1.0744093040189</v>
       </c>
       <c r="G3">
-        <v>0.8185660106220496</v>
+        <v>0.6086734561348379</v>
       </c>
       <c r="H3">
-        <v>0.4665130915130931</v>
+        <v>0.6698847976916227</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02880485950351153</v>
+        <v>0.1268758216931052</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.285587427371638</v>
+        <v>0.9554597755403762</v>
       </c>
       <c r="N3">
-        <v>3.653175467400558</v>
+        <v>1.665631701753284</v>
       </c>
       <c r="O3">
-        <v>2.664102365173079</v>
+        <v>2.53862550547575</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1166958939001717</v>
+        <v>0.04061103459267201</v>
       </c>
       <c r="D4">
-        <v>0.05712246224982742</v>
+        <v>0.1953663295942807</v>
       </c>
       <c r="E4">
-        <v>0.03526295213700137</v>
+        <v>0.135788424637275</v>
       </c>
       <c r="F4">
-        <v>0.8449519224749622</v>
+        <v>1.064696601847416</v>
       </c>
       <c r="G4">
-        <v>0.7487220288153509</v>
+        <v>0.5940811851556731</v>
       </c>
       <c r="H4">
-        <v>0.437571390768781</v>
+        <v>0.6661616613001797</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03119106733447641</v>
+        <v>0.1286108358439733</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.079365400396725</v>
+        <v>0.8894764630605465</v>
       </c>
       <c r="N4">
-        <v>3.378457080217885</v>
+        <v>1.574993815108371</v>
       </c>
       <c r="O4">
-        <v>2.455153958835808</v>
+        <v>2.49963818291252</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1116992558827405</v>
+        <v>0.03922465822222421</v>
       </c>
       <c r="D5">
-        <v>0.05770564834609537</v>
+        <v>0.1958925342865392</v>
       </c>
       <c r="E5">
-        <v>0.03606960840505635</v>
+        <v>0.1363860647016674</v>
       </c>
       <c r="F5">
-        <v>0.819199320627547</v>
+        <v>1.060928236255336</v>
       </c>
       <c r="G5">
-        <v>0.7206145553285239</v>
+        <v>0.5882531194770593</v>
       </c>
       <c r="H5">
-        <v>0.425988824744735</v>
+        <v>0.6647452239511438</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03220505324913114</v>
+        <v>0.1293410668729664</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.995232126890073</v>
+        <v>0.8625454717536769</v>
       </c>
       <c r="N5">
-        <v>3.266617851485933</v>
+        <v>1.538105106546169</v>
       </c>
       <c r="O5">
-        <v>2.371196139599533</v>
+        <v>2.484208693179198</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1108712111436034</v>
+        <v>0.03899468438234521</v>
       </c>
       <c r="D6">
-        <v>0.05780394949001888</v>
+        <v>0.1959810013215311</v>
       </c>
       <c r="E6">
-        <v>0.03620532924749642</v>
+        <v>0.1364864424054107</v>
       </c>
       <c r="F6">
-        <v>0.8149489623305186</v>
+        <v>1.060313941860457</v>
       </c>
       <c r="G6">
-        <v>0.7159676223700444</v>
+        <v>0.58729251003831</v>
       </c>
       <c r="H6">
-        <v>0.4240777984628465</v>
+        <v>0.6645161085388338</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03237587829331456</v>
+        <v>0.1294637207478431</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.981255765668067</v>
+        <v>0.8580711259283333</v>
       </c>
       <c r="N6">
-        <v>3.248053277036036</v>
+        <v>1.53198273238246</v>
       </c>
       <c r="O6">
-        <v>2.357323440496685</v>
+        <v>2.4816742710874</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1166283945130004</v>
+        <v>0.04059232179156425</v>
       </c>
       <c r="D7">
-        <v>0.05713022875079332</v>
+        <v>0.1953733530280513</v>
       </c>
       <c r="E7">
-        <v>0.03527371117505984</v>
+        <v>0.1357964081795836</v>
       </c>
       <c r="F7">
-        <v>0.844602855846631</v>
+        <v>1.06464501314484</v>
       </c>
       <c r="G7">
-        <v>0.7483415771352213</v>
+        <v>0.5940021070887695</v>
       </c>
       <c r="H7">
-        <v>0.4374143518303271</v>
+        <v>0.666142150872119</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03120457656628384</v>
+        <v>0.1286205901365527</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.078231152157855</v>
+        <v>0.8891134299239809</v>
       </c>
       <c r="N7">
-        <v>3.376948349247243</v>
+        <v>1.574496125015344</v>
       </c>
       <c r="O7">
-        <v>2.454017012085274</v>
+        <v>2.49942824211962</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1423038879935916</v>
+        <v>0.04767652531985789</v>
       </c>
       <c r="D8">
-        <v>0.05437480460986421</v>
+        <v>0.1928505122191009</v>
       </c>
       <c r="E8">
-        <v>0.03142901917436736</v>
+        <v>0.1329173158402202</v>
       </c>
       <c r="F8">
-        <v>0.9795010209614219</v>
+        <v>1.085423238861466</v>
       </c>
       <c r="G8">
-        <v>0.8944194561839538</v>
+        <v>0.624650934447132</v>
       </c>
       <c r="H8">
-        <v>0.4981709189996621</v>
+        <v>0.67420251903701</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02640647353043368</v>
+        <v>0.1251038491690748</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.505347121239922</v>
+        <v>1.025718346478854</v>
       </c>
       <c r="N8">
-        <v>3.946749960769807</v>
+        <v>1.762498840636766</v>
       </c>
       <c r="O8">
-        <v>2.891483495464769</v>
+        <v>2.581798474916212</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1939543630541891</v>
+        <v>0.06169532997853366</v>
       </c>
       <c r="D9">
-        <v>0.04980223670424344</v>
+        <v>0.1884728724651286</v>
       </c>
       <c r="E9">
-        <v>0.02492975583608148</v>
+        <v>0.1278691350506883</v>
       </c>
       <c r="F9">
-        <v>1.261548627688356</v>
+        <v>1.13219351241392</v>
       </c>
       <c r="G9">
-        <v>1.195263965315377</v>
+        <v>0.6885321986151212</v>
       </c>
       <c r="H9">
-        <v>0.6254673993022948</v>
+        <v>0.6931994145703868</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.01847239394136402</v>
+        <v>0.118943537577096</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.340837882688504</v>
+        <v>1.292083054324664</v>
       </c>
       <c r="N9">
-        <v>5.069039252804657</v>
+        <v>2.132339682909901</v>
       </c>
       <c r="O9">
-        <v>3.796802049808548</v>
+        <v>2.75789747893117</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2330382051777633</v>
+        <v>0.07207708813358238</v>
       </c>
       <c r="D10">
-        <v>0.04699774696609182</v>
+        <v>0.1856034903473098</v>
       </c>
       <c r="E10">
-        <v>0.02087150907927371</v>
+        <v>0.1245258330929258</v>
       </c>
       <c r="F10">
-        <v>1.482542524684135</v>
+        <v>1.170268475281375</v>
       </c>
       <c r="G10">
-        <v>1.427997350703919</v>
+        <v>0.7378122968161165</v>
       </c>
       <c r="H10">
-        <v>0.7253211029487829</v>
+        <v>0.7091139055110034</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.01368636198234885</v>
+        <v>0.1148692250890404</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>3.954438283165473</v>
+        <v>1.486738951118824</v>
       </c>
       <c r="N10">
-        <v>5.8980531036662</v>
+        <v>2.404569657386105</v>
       </c>
       <c r="O10">
-        <v>4.499927969377723</v>
+        <v>2.896277753092363</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.251148926067799</v>
+        <v>0.07681896428178447</v>
       </c>
       <c r="D11">
-        <v>0.04585385574059231</v>
+        <v>0.184373366885465</v>
       </c>
       <c r="E11">
-        <v>0.01920054037838437</v>
+        <v>0.1230845211492422</v>
       </c>
       <c r="F11">
-        <v>1.586825674852605</v>
+        <v>1.188404996746243</v>
       </c>
       <c r="G11">
-        <v>1.537133078785445</v>
+        <v>0.7607501605692732</v>
       </c>
       <c r="H11">
-        <v>0.7724542446694613</v>
+        <v>0.7167817273580113</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01177002338393374</v>
+        <v>0.1131144263256338</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4.233803279723432</v>
+        <v>1.575043111364508</v>
       </c>
       <c r="N11">
-        <v>6.276536016388604</v>
+        <v>2.528483716617302</v>
       </c>
       <c r="O11">
-        <v>4.830266373993879</v>
+        <v>2.961211224013482</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2580622398747749</v>
+        <v>0.07861741114410847</v>
       </c>
       <c r="D12">
-        <v>0.04544068781994781</v>
+        <v>0.1839183572319172</v>
       </c>
       <c r="E12">
-        <v>0.01859474539778105</v>
+        <v>0.1225502019663467</v>
       </c>
       <c r="F12">
-        <v>1.626923713172346</v>
+        <v>1.195390792268327</v>
       </c>
       <c r="G12">
-        <v>1.578995098075154</v>
+        <v>0.7695115737348601</v>
       </c>
       <c r="H12">
-        <v>0.7905786261305821</v>
+        <v>0.7197470944199438</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01108499954219244</v>
+        <v>0.1124641701217666</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4.339650263832951</v>
+        <v>1.608443892844605</v>
       </c>
       <c r="N12">
-        <v>6.420085857831054</v>
+        <v>2.575413648292511</v>
       </c>
       <c r="O12">
-        <v>4.957067699067863</v>
+        <v>2.986086850347931</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2565707526630945</v>
+        <v>0.07822995811930866</v>
       </c>
       <c r="D13">
-        <v>0.04552876425355379</v>
+        <v>0.184015870835081</v>
       </c>
       <c r="E13">
-        <v>0.01872398524882302</v>
+        <v>0.1226647663281411</v>
       </c>
       <c r="F13">
-        <v>1.618259667717794</v>
+        <v>1.193881024402856</v>
       </c>
       <c r="G13">
-        <v>1.56995447744049</v>
+        <v>0.7676212869877759</v>
       </c>
       <c r="H13">
-        <v>0.7866624244256286</v>
+        <v>0.7191057017497826</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01123067103349351</v>
+        <v>0.1126035796976437</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.316851251555804</v>
+        <v>1.601252174394858</v>
       </c>
       <c r="N13">
-        <v>6.389159228748383</v>
+        <v>2.565306235060973</v>
       </c>
       <c r="O13">
-        <v>4.929679323894902</v>
+        <v>2.980716662915995</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2517165371106671</v>
+        <v>0.0769668671848649</v>
       </c>
       <c r="D14">
-        <v>0.04581945718778258</v>
+        <v>0.1843357162807333</v>
       </c>
       <c r="E14">
-        <v>0.01915015021099853</v>
+        <v>0.1230403322420981</v>
       </c>
       <c r="F14">
-        <v>1.590111957657555</v>
+        <v>1.188977356564251</v>
       </c>
       <c r="G14">
-        <v>1.540565980555499</v>
+        <v>0.7614694541710776</v>
       </c>
       <c r="H14">
-        <v>0.7739396316298439</v>
+        <v>0.7170244518857487</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01171283246929722</v>
+        <v>0.1130606434282013</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4.242510074696042</v>
+        <v>1.577791792745927</v>
       </c>
       <c r="N14">
-        <v>6.288341219239157</v>
+        <v>2.532344568083374</v>
       </c>
       <c r="O14">
-        <v>4.840662913811229</v>
+        <v>2.963252001699857</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2487506109352751</v>
+        <v>0.07619355368045433</v>
       </c>
       <c r="D15">
-        <v>0.04600015132479385</v>
+        <v>0.1845330388656254</v>
       </c>
       <c r="E15">
-        <v>0.01941475508365409</v>
+        <v>0.1232718724581241</v>
       </c>
       <c r="F15">
-        <v>1.572952035063025</v>
+        <v>1.185989087162994</v>
       </c>
       <c r="G15">
-        <v>1.522636351654171</v>
+        <v>0.7577111070974638</v>
       </c>
       <c r="H15">
-        <v>0.7661834554972131</v>
+        <v>0.7157576696735646</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01201356175054169</v>
+        <v>0.1133424656237816</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.196982206839749</v>
+        <v>1.56341659031645</v>
       </c>
       <c r="N15">
-        <v>6.226617754490746</v>
+        <v>2.512155293071089</v>
       </c>
       <c r="O15">
-        <v>4.786366712108986</v>
+        <v>2.952591777521377</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2318619224274272</v>
+        <v>0.07176758488537871</v>
       </c>
       <c r="D16">
-        <v>0.04707524363026572</v>
+        <v>0.1856853946176162</v>
       </c>
       <c r="E16">
-        <v>0.02098438444099315</v>
+        <v>0.1246216301514973</v>
       </c>
       <c r="F16">
-        <v>1.475808610381208</v>
+        <v>1.169099678053641</v>
       </c>
       <c r="G16">
-        <v>1.420936203870468</v>
+        <v>0.7363237663994653</v>
       </c>
       <c r="H16">
-        <v>0.7222777618633813</v>
+        <v>0.7086214253071432</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01381711135201691</v>
+        <v>0.114985895536778</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>3.936187810157634</v>
+        <v>1.480962885793559</v>
       </c>
       <c r="N16">
-        <v>5.873348307566573</v>
+        <v>2.396472714629397</v>
       </c>
       <c r="O16">
-        <v>4.478567359984027</v>
+        <v>2.89207424041814</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2215912641665199</v>
+        <v>0.06905733692263993</v>
       </c>
       <c r="D17">
-        <v>0.04776927107910822</v>
+        <v>0.1864115822654888</v>
       </c>
       <c r="E17">
-        <v>0.02199338748921442</v>
+        <v>0.1254700659613417</v>
       </c>
       <c r="F17">
-        <v>1.417222219893034</v>
+        <v>1.158947964258402</v>
       </c>
       <c r="G17">
-        <v>1.359427092058354</v>
+        <v>0.7233369283091804</v>
       </c>
       <c r="H17">
-        <v>0.6958015037592133</v>
+        <v>0.7043533586557658</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01499250197411461</v>
+        <v>0.1160193937765879</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>3.776275004288678</v>
+        <v>1.430315299500478</v>
       </c>
       <c r="N17">
-        <v>5.656998456135341</v>
+        <v>2.325521290693189</v>
       </c>
       <c r="O17">
-        <v>4.292565264507346</v>
+        <v>2.855457796903238</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2157145458429284</v>
+        <v>0.06750027490159027</v>
       </c>
       <c r="D18">
-        <v>0.04818080514394296</v>
+        <v>0.1868363417168641</v>
       </c>
       <c r="E18">
-        <v>0.02259011154278912</v>
+        <v>0.1259655516619438</v>
       </c>
       <c r="F18">
-        <v>1.383873559389713</v>
+        <v>1.153185742924606</v>
       </c>
       <c r="G18">
-        <v>1.324351665473955</v>
+        <v>0.7159161637169404</v>
       </c>
       <c r="H18">
-        <v>0.6807319656229822</v>
+        <v>0.701938778588044</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01569290641418686</v>
+        <v>0.1166231138710287</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>3.684317915946195</v>
+        <v>1.401161176035288</v>
       </c>
       <c r="N18">
-        <v>5.532685756228659</v>
+        <v>2.284719256762003</v>
       </c>
       <c r="O18">
-        <v>4.186555341449775</v>
+        <v>2.834583602412181</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.213729842620225</v>
+        <v>0.06697338836849553</v>
       </c>
       <c r="D19">
-        <v>0.04832223386942402</v>
+        <v>0.1869813731481198</v>
       </c>
       <c r="E19">
-        <v>0.02279491181387638</v>
+        <v>0.1261345996848282</v>
       </c>
       <c r="F19">
-        <v>1.372640167165514</v>
+        <v>1.151247923577088</v>
       </c>
       <c r="G19">
-        <v>1.31252587365762</v>
+        <v>0.7134120057850168</v>
       </c>
       <c r="H19">
-        <v>0.675656092543619</v>
+        <v>0.7011281601434689</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.01593414173155905</v>
+        <v>0.1168291148458547</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3.653185679762274</v>
+        <v>1.391286229317117</v>
       </c>
       <c r="N19">
-        <v>5.490616359886815</v>
+        <v>2.270905788017217</v>
       </c>
       <c r="O19">
-        <v>4.150823559402966</v>
+        <v>2.827547964815494</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2226813642257639</v>
+        <v>0.06934566072521875</v>
       </c>
       <c r="D20">
-        <v>0.04769410544906094</v>
+        <v>0.186333546049303</v>
       </c>
       <c r="E20">
-        <v>0.02188427044643682</v>
+        <v>0.1253789733241595</v>
       </c>
       <c r="F20">
-        <v>1.423422275566537</v>
+        <v>1.160020681558706</v>
       </c>
       <c r="G20">
-        <v>1.365943029886722</v>
+        <v>0.7247143322368288</v>
       </c>
       <c r="H20">
-        <v>0.6986032898689132</v>
+        <v>0.7048035297646891</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.01486483741815459</v>
+        <v>0.1159084152823411</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>3.793295709094494</v>
+        <v>1.435709218909807</v>
       </c>
       <c r="N20">
-        <v>5.680016010569716</v>
+        <v>2.333073462815321</v>
       </c>
       <c r="O20">
-        <v>4.312263341285927</v>
+        <v>2.859336355031019</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2531407769235727</v>
+        <v>0.07733779122060014</v>
       </c>
       <c r="D21">
-        <v>0.04573352227438221</v>
+        <v>0.1842414764885731</v>
       </c>
       <c r="E21">
-        <v>0.01902422861585551</v>
+        <v>0.1229297077635598</v>
       </c>
       <c r="F21">
-        <v>1.598362534845847</v>
+        <v>1.190414478869528</v>
       </c>
       <c r="G21">
-        <v>1.549183032422917</v>
+        <v>0.7632743474262043</v>
       </c>
       <c r="H21">
-        <v>0.7776688758485193</v>
+        <v>0.7176340889106143</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01157008043483776</v>
+        <v>0.1129260055200527</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4.264344114299575</v>
+        <v>1.58468373099096</v>
       </c>
       <c r="N21">
-        <v>6.317947501568312</v>
+        <v>2.542026071143141</v>
       </c>
       <c r="O21">
-        <v>4.866761097308029</v>
+        <v>2.968374002357393</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2733733817589581</v>
+        <v>0.08257745961650187</v>
       </c>
       <c r="D22">
-        <v>0.04456926802540195</v>
+        <v>0.1829372060391687</v>
       </c>
       <c r="E22">
-        <v>0.01731311506116517</v>
+        <v>0.1213958674025712</v>
       </c>
       <c r="F22">
-        <v>1.716278157205451</v>
+        <v>1.210965980376528</v>
       </c>
       <c r="G22">
-        <v>1.672092363240978</v>
+        <v>0.788914954164909</v>
       </c>
       <c r="H22">
-        <v>0.830968197888609</v>
+        <v>0.7263794769361311</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.009655355037075264</v>
+        <v>0.1110599072491771</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>4.572550141396746</v>
+        <v>1.681823922277346</v>
       </c>
       <c r="N22">
-        <v>6.736209825635854</v>
+        <v>2.678623759850495</v>
       </c>
       <c r="O22">
-        <v>5.239228464562473</v>
+        <v>3.041308386852393</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.262542392667271</v>
+        <v>0.07977943895765804</v>
       </c>
       <c r="D23">
-        <v>0.04517957749381196</v>
+        <v>0.1836275530203118</v>
       </c>
       <c r="E23">
-        <v>0.01821128209100564</v>
+        <v>0.1222083752983811</v>
       </c>
       <c r="F23">
-        <v>1.652992217576099</v>
+        <v>1.199934179997967</v>
       </c>
       <c r="G23">
-        <v>1.606181782830561</v>
+        <v>0.7751896912211862</v>
       </c>
       <c r="H23">
-        <v>0.8023618546301918</v>
+        <v>0.7216789205386362</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01065434626484585</v>
+        <v>0.1120482555344404</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4.408014192053358</v>
+        <v>1.629999704804064</v>
       </c>
       <c r="N23">
-        <v>6.512841973768445</v>
+        <v>2.605717251639078</v>
       </c>
       <c r="O23">
-        <v>5.039442377023136</v>
+        <v>3.00222845273214</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2221884432746464</v>
+        <v>0.06921530612642357</v>
       </c>
       <c r="D24">
-        <v>0.04772804888448512</v>
+        <v>0.1863688035951654</v>
       </c>
       <c r="E24">
-        <v>0.02193355058089708</v>
+        <v>0.1254201322951725</v>
       </c>
       <c r="F24">
-        <v>1.420618196939245</v>
+        <v>1.15953547517924</v>
       </c>
       <c r="G24">
-        <v>1.362996285374777</v>
+        <v>0.7240914661032036</v>
       </c>
       <c r="H24">
-        <v>0.6973361311313511</v>
+        <v>0.7045998853408548</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.01492247799848689</v>
+        <v>0.1159585589210437</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>3.785600715881316</v>
+        <v>1.433270740340461</v>
       </c>
       <c r="N24">
-        <v>5.669609559376909</v>
+        <v>2.329659160076858</v>
       </c>
       <c r="O24">
-        <v>4.303354974143247</v>
+        <v>2.857582307385712</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1798084759589642</v>
+        <v>0.05788880027417065</v>
       </c>
       <c r="D25">
-        <v>0.05094546009434708</v>
+        <v>0.189596197388342</v>
       </c>
       <c r="E25">
-        <v>0.02656840171280717</v>
+        <v>0.1291706874114815</v>
       </c>
       <c r="F25">
-        <v>1.183067602929313</v>
+        <v>1.118891818592445</v>
       </c>
       <c r="G25">
-        <v>1.11204905774045</v>
+        <v>0.6708416405862749</v>
       </c>
       <c r="H25">
-        <v>0.5900239264463494</v>
+        <v>0.6877174018005974</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02044659863874454</v>
+        <v>0.1205309636830596</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.114939496569789</v>
+        <v>1.220198960981151</v>
       </c>
       <c r="N25">
-        <v>4.764761297341067</v>
+        <v>2.032184207337934</v>
       </c>
       <c r="O25">
-        <v>3.545918719794827</v>
+        <v>2.708685973923366</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_211/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_211/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04960438181704774</v>
+        <v>0.1493368903647081</v>
       </c>
       <c r="D2">
-        <v>0.1922055140664654</v>
+        <v>0.0536827454803408</v>
       </c>
       <c r="E2">
-        <v>0.1321776307253534</v>
+        <v>0.03045480255479771</v>
       </c>
       <c r="F2">
-        <v>1.091459290066467</v>
+        <v>1.017130348716947</v>
       </c>
       <c r="G2">
-        <v>0.6332093872325828</v>
+        <v>0.9348721519559575</v>
       </c>
       <c r="H2">
-        <v>0.6766019342329201</v>
+        <v>0.5151380321049857</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1242006871250769</v>
+        <v>0.02520124124843148</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.062633181663088</v>
+        <v>2.620899360973809</v>
       </c>
       <c r="N2">
-        <v>1.813524949418252</v>
+        <v>4.101420435733559</v>
       </c>
       <c r="O2">
-        <v>2.605098433374792</v>
+        <v>3.012914949611002</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04402263596996647</v>
+        <v>0.1290294208693581</v>
       </c>
       <c r="D3">
-        <v>0.1941193837986361</v>
+        <v>0.05575164155757406</v>
       </c>
       <c r="E3">
-        <v>0.1343682001590979</v>
+        <v>0.03335701688651116</v>
       </c>
       <c r="F3">
-        <v>1.0744093040189</v>
+        <v>0.9092455082271442</v>
       </c>
       <c r="G3">
-        <v>0.6086734561348379</v>
+        <v>0.818566010622078</v>
       </c>
       <c r="H3">
-        <v>0.6698847976916227</v>
+        <v>0.4665130915130931</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1268758216931052</v>
+        <v>0.02880485950352218</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.9554597755403762</v>
+        <v>2.285587427371638</v>
       </c>
       <c r="N3">
-        <v>1.665631701753284</v>
+        <v>3.653175467400558</v>
       </c>
       <c r="O3">
-        <v>2.53862550547575</v>
+        <v>2.664102365173079</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04061103459267201</v>
+        <v>0.1166958939001717</v>
       </c>
       <c r="D4">
-        <v>0.1953663295942807</v>
+        <v>0.05712246224965511</v>
       </c>
       <c r="E4">
-        <v>0.135788424637275</v>
+        <v>0.03526295213701913</v>
       </c>
       <c r="F4">
-        <v>1.064696601847416</v>
+        <v>0.844951922474948</v>
       </c>
       <c r="G4">
-        <v>0.5940811851556731</v>
+        <v>0.7487220288153225</v>
       </c>
       <c r="H4">
-        <v>0.6661616613001797</v>
+        <v>0.4375713907687953</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1286108358439733</v>
+        <v>0.03119106733449062</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8894764630605465</v>
+        <v>2.079365400396696</v>
       </c>
       <c r="N4">
-        <v>1.574993815108371</v>
+        <v>3.378457080217856</v>
       </c>
       <c r="O4">
-        <v>2.49963818291252</v>
+        <v>2.455153958835751</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03922465822222421</v>
+        <v>0.1116992558828542</v>
       </c>
       <c r="D5">
-        <v>0.1958925342865392</v>
+        <v>0.05770564834603498</v>
       </c>
       <c r="E5">
-        <v>0.1363860647016674</v>
+        <v>0.03606960840505635</v>
       </c>
       <c r="F5">
-        <v>1.060928236255336</v>
+        <v>0.819199320627547</v>
       </c>
       <c r="G5">
-        <v>0.5882531194770593</v>
+        <v>0.7206145553285239</v>
       </c>
       <c r="H5">
-        <v>0.6647452239511438</v>
+        <v>0.4259888247447208</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1293410668729664</v>
+        <v>0.0322050532491871</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.8625454717536769</v>
+        <v>1.995232126890073</v>
       </c>
       <c r="N5">
-        <v>1.538105106546169</v>
+        <v>3.266617851485933</v>
       </c>
       <c r="O5">
-        <v>2.484208693179198</v>
+        <v>2.371196139599533</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03899468438234521</v>
+        <v>0.1108712111433618</v>
       </c>
       <c r="D6">
-        <v>0.1959810013215311</v>
+        <v>0.05780394948996559</v>
       </c>
       <c r="E6">
-        <v>0.1364864424054107</v>
+        <v>0.03620532924749242</v>
       </c>
       <c r="F6">
-        <v>1.060313941860457</v>
+        <v>0.8149489623305328</v>
       </c>
       <c r="G6">
-        <v>0.58729251003831</v>
+        <v>0.7159676223700586</v>
       </c>
       <c r="H6">
-        <v>0.6645161085388338</v>
+        <v>0.4240777984627329</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1294637207478431</v>
+        <v>0.03237587829330923</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8580711259283333</v>
+        <v>1.981255765668067</v>
       </c>
       <c r="N6">
-        <v>1.53198273238246</v>
+        <v>3.248053277036092</v>
       </c>
       <c r="O6">
-        <v>2.4816742710874</v>
+        <v>2.357323440496685</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04059232179156425</v>
+        <v>0.1166283945130004</v>
       </c>
       <c r="D7">
-        <v>0.1953733530280513</v>
+        <v>0.05713022875085016</v>
       </c>
       <c r="E7">
-        <v>0.1357964081795836</v>
+        <v>0.03527371117506128</v>
       </c>
       <c r="F7">
-        <v>1.06464501314484</v>
+        <v>0.8446028558466026</v>
       </c>
       <c r="G7">
-        <v>0.5940021070887695</v>
+        <v>0.7483415771352213</v>
       </c>
       <c r="H7">
-        <v>0.666142150872119</v>
+        <v>0.4374143518304408</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1286205901365527</v>
+        <v>0.03120457656628783</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8891134299239809</v>
+        <v>2.078231152157883</v>
       </c>
       <c r="N7">
-        <v>1.574496125015344</v>
+        <v>3.376948349247243</v>
       </c>
       <c r="O7">
-        <v>2.49942824211962</v>
+        <v>2.454017012085274</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04767652531985789</v>
+        <v>0.142303887993819</v>
       </c>
       <c r="D8">
-        <v>0.1928505122191009</v>
+        <v>0.05437480460974875</v>
       </c>
       <c r="E8">
-        <v>0.1329173158402202</v>
+        <v>0.03142901917437979</v>
       </c>
       <c r="F8">
-        <v>1.085423238861466</v>
+        <v>0.9795010209614219</v>
       </c>
       <c r="G8">
-        <v>0.624650934447132</v>
+        <v>0.8944194561839822</v>
       </c>
       <c r="H8">
-        <v>0.67420251903701</v>
+        <v>0.4981709189996621</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1251038491690748</v>
+        <v>0.02640647353049141</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.025718346478854</v>
+        <v>2.505347121239907</v>
       </c>
       <c r="N8">
-        <v>1.762498840636766</v>
+        <v>3.946749960769807</v>
       </c>
       <c r="O8">
-        <v>2.581798474916212</v>
+        <v>2.891483495464826</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06169532997853366</v>
+        <v>0.1939543630543312</v>
       </c>
       <c r="D9">
-        <v>0.1884728724651286</v>
+        <v>0.04980223670416351</v>
       </c>
       <c r="E9">
-        <v>0.1278691350506883</v>
+        <v>0.02492975583607482</v>
       </c>
       <c r="F9">
-        <v>1.13219351241392</v>
+        <v>1.261548627688327</v>
       </c>
       <c r="G9">
-        <v>0.6885321986151212</v>
+        <v>1.195263965315434</v>
       </c>
       <c r="H9">
-        <v>0.6931994145703868</v>
+        <v>0.6254673993022948</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.118943537577096</v>
+        <v>0.01847239394135869</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.292083054324664</v>
+        <v>3.340837882688533</v>
       </c>
       <c r="N9">
-        <v>2.132339682909901</v>
+        <v>5.069039252804657</v>
       </c>
       <c r="O9">
-        <v>2.75789747893117</v>
+        <v>3.796802049808548</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07207708813358238</v>
+        <v>0.2330382051777633</v>
       </c>
       <c r="D10">
-        <v>0.1856034903473098</v>
+        <v>0.04699774696611492</v>
       </c>
       <c r="E10">
-        <v>0.1245258330929258</v>
+        <v>0.02087150907925106</v>
       </c>
       <c r="F10">
-        <v>1.170268475281375</v>
+        <v>1.482542524684135</v>
       </c>
       <c r="G10">
-        <v>0.7378122968161165</v>
+        <v>1.427997350703947</v>
       </c>
       <c r="H10">
-        <v>0.7091139055110034</v>
+        <v>0.7253211029487829</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1148692250890404</v>
+        <v>0.01368636198224404</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.486738951118824</v>
+        <v>3.954438283165473</v>
       </c>
       <c r="N10">
-        <v>2.404569657386105</v>
+        <v>5.8980531036662</v>
       </c>
       <c r="O10">
-        <v>2.896277753092363</v>
+        <v>4.499927969377779</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07681896428178447</v>
+        <v>0.2511489260676143</v>
       </c>
       <c r="D11">
-        <v>0.184373366885465</v>
+        <v>0.04585385574047862</v>
       </c>
       <c r="E11">
-        <v>0.1230845211492422</v>
+        <v>0.01920054037834795</v>
       </c>
       <c r="F11">
-        <v>1.188404996746243</v>
+        <v>1.586825674852619</v>
       </c>
       <c r="G11">
-        <v>0.7607501605692732</v>
+        <v>1.537133078785388</v>
       </c>
       <c r="H11">
-        <v>0.7167817273580113</v>
+        <v>0.7724542446694898</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1131144263256338</v>
+        <v>0.01177002338381694</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.575043111364508</v>
+        <v>4.23380327972346</v>
       </c>
       <c r="N11">
-        <v>2.528483716617302</v>
+        <v>6.276536016388548</v>
       </c>
       <c r="O11">
-        <v>2.961211224013482</v>
+        <v>4.830266373993879</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07861741114410847</v>
+        <v>0.2580622398750023</v>
       </c>
       <c r="D12">
-        <v>0.1839183572319172</v>
+        <v>0.04544068781983412</v>
       </c>
       <c r="E12">
-        <v>0.1225502019663467</v>
+        <v>0.01859474539778549</v>
       </c>
       <c r="F12">
-        <v>1.195390792268327</v>
+        <v>1.626923713172374</v>
       </c>
       <c r="G12">
-        <v>0.7695115737348601</v>
+        <v>1.578995098075097</v>
       </c>
       <c r="H12">
-        <v>0.7197470944199438</v>
+        <v>0.7905786261305821</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1124641701217666</v>
+        <v>0.01108499954212716</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.608443892844605</v>
+        <v>4.339650263832993</v>
       </c>
       <c r="N12">
-        <v>2.575413648292511</v>
+        <v>6.420085857830941</v>
       </c>
       <c r="O12">
-        <v>2.986086850347931</v>
+        <v>4.957067699067863</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07822995811930866</v>
+        <v>0.2565707526630803</v>
       </c>
       <c r="D13">
-        <v>0.184015870835081</v>
+        <v>0.04552876425346852</v>
       </c>
       <c r="E13">
-        <v>0.1226647663281411</v>
+        <v>0.018723985248839</v>
       </c>
       <c r="F13">
-        <v>1.193881024402856</v>
+        <v>1.618259667717794</v>
       </c>
       <c r="G13">
-        <v>0.7676212869877759</v>
+        <v>1.569954477440433</v>
       </c>
       <c r="H13">
-        <v>0.7191057017497826</v>
+        <v>0.786662424425657</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1126035796976437</v>
+        <v>0.01123067103341358</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.601252174394858</v>
+        <v>4.316851251555804</v>
       </c>
       <c r="N13">
-        <v>2.565306235060973</v>
+        <v>6.389159228748383</v>
       </c>
       <c r="O13">
-        <v>2.980716662915995</v>
+        <v>4.929679323894959</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0769668671848649</v>
+        <v>0.2517165371104824</v>
       </c>
       <c r="D14">
-        <v>0.1843357162807333</v>
+        <v>0.04581945718780389</v>
       </c>
       <c r="E14">
-        <v>0.1230403322420981</v>
+        <v>0.01915015021098476</v>
       </c>
       <c r="F14">
-        <v>1.188977356564251</v>
+        <v>1.590111957657555</v>
       </c>
       <c r="G14">
-        <v>0.7614694541710776</v>
+        <v>1.540565980555499</v>
       </c>
       <c r="H14">
-        <v>0.7170244518857487</v>
+        <v>0.7739396316298439</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1130606434282013</v>
+        <v>0.01171283246924526</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.577791792745927</v>
+        <v>4.242510074696042</v>
       </c>
       <c r="N14">
-        <v>2.532344568083374</v>
+        <v>6.288341219239271</v>
       </c>
       <c r="O14">
-        <v>2.963252001699857</v>
+        <v>4.840662913811286</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07619355368045433</v>
+        <v>0.2487506109348772</v>
       </c>
       <c r="D15">
-        <v>0.1845330388656254</v>
+        <v>0.04600015132459134</v>
       </c>
       <c r="E15">
-        <v>0.1232718724581241</v>
+        <v>0.0194147550836532</v>
       </c>
       <c r="F15">
-        <v>1.185989087162994</v>
+        <v>1.572952035063025</v>
       </c>
       <c r="G15">
-        <v>0.7577111070974638</v>
+        <v>1.522636351654313</v>
       </c>
       <c r="H15">
-        <v>0.7157576696735646</v>
+        <v>0.7661834554972131</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1133424656237816</v>
+        <v>0.01201356175058965</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.56341659031645</v>
+        <v>4.196982206839778</v>
       </c>
       <c r="N15">
-        <v>2.512155293071089</v>
+        <v>6.226617754490803</v>
       </c>
       <c r="O15">
-        <v>2.952591777521377</v>
+        <v>4.786366712109043</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07176758488537871</v>
+        <v>0.2318619224270719</v>
       </c>
       <c r="D16">
-        <v>0.1856853946176162</v>
+        <v>0.04707524363026039</v>
       </c>
       <c r="E16">
-        <v>0.1246216301514973</v>
+        <v>0.02098438444095563</v>
       </c>
       <c r="F16">
-        <v>1.169099678053641</v>
+        <v>1.475808610381208</v>
       </c>
       <c r="G16">
-        <v>0.7363237663994653</v>
+        <v>1.420936203870497</v>
       </c>
       <c r="H16">
-        <v>0.7086214253071432</v>
+        <v>0.7222777618633813</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.114985895536778</v>
+        <v>0.01381711135194852</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.480962885793559</v>
+        <v>3.936187810157634</v>
       </c>
       <c r="N16">
-        <v>2.396472714629397</v>
+        <v>5.873348307566516</v>
       </c>
       <c r="O16">
-        <v>2.89207424041814</v>
+        <v>4.478567359984083</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06905733692263993</v>
+        <v>0.2215912641663778</v>
       </c>
       <c r="D17">
-        <v>0.1864115822654888</v>
+        <v>0.04776927107929829</v>
       </c>
       <c r="E17">
-        <v>0.1254700659613417</v>
+        <v>0.02199338748924129</v>
       </c>
       <c r="F17">
-        <v>1.158947964258402</v>
+        <v>1.417222219893034</v>
       </c>
       <c r="G17">
-        <v>0.7233369283091804</v>
+        <v>1.359427092058326</v>
       </c>
       <c r="H17">
-        <v>0.7043533586557658</v>
+        <v>0.695801503759327</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1160193937765879</v>
+        <v>0.0149925019741679</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.430315299500478</v>
+        <v>3.776275004288678</v>
       </c>
       <c r="N17">
-        <v>2.325521290693189</v>
+        <v>5.656998456135341</v>
       </c>
       <c r="O17">
-        <v>2.855457796903238</v>
+        <v>4.292565264507346</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06750027490159027</v>
+        <v>0.2157145458429142</v>
       </c>
       <c r="D18">
-        <v>0.1868363417168641</v>
+        <v>0.04818080514391632</v>
       </c>
       <c r="E18">
-        <v>0.1259655516619438</v>
+        <v>0.02259011154280421</v>
       </c>
       <c r="F18">
-        <v>1.153185742924606</v>
+        <v>1.383873559389713</v>
       </c>
       <c r="G18">
-        <v>0.7159161637169404</v>
+        <v>1.324351665473927</v>
       </c>
       <c r="H18">
-        <v>0.701938778588044</v>
+        <v>0.6807319656229822</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1166231138710287</v>
+        <v>0.01569290641424637</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.401161176035288</v>
+        <v>3.684317915946224</v>
       </c>
       <c r="N18">
-        <v>2.284719256762003</v>
+        <v>5.532685756228659</v>
       </c>
       <c r="O18">
-        <v>2.834583602412181</v>
+        <v>4.186555341449719</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06697338836849553</v>
+        <v>0.2137298426199266</v>
       </c>
       <c r="D19">
-        <v>0.1869813731481198</v>
+        <v>0.04832223386920376</v>
       </c>
       <c r="E19">
-        <v>0.1261345996848282</v>
+        <v>0.02279491181387638</v>
       </c>
       <c r="F19">
-        <v>1.151247923577088</v>
+        <v>1.372640167165514</v>
       </c>
       <c r="G19">
-        <v>0.7134120057850168</v>
+        <v>1.312525873657648</v>
       </c>
       <c r="H19">
-        <v>0.7011281601434689</v>
+        <v>0.675656092543619</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1168291148458547</v>
+        <v>0.01593414173157726</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.391286229317117</v>
+        <v>3.653185679762316</v>
       </c>
       <c r="N19">
-        <v>2.270905788017217</v>
+        <v>5.490616359886815</v>
       </c>
       <c r="O19">
-        <v>2.827547964815494</v>
+        <v>4.150823559402966</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06934566072521875</v>
+        <v>0.2226813642258918</v>
       </c>
       <c r="D20">
-        <v>0.186333546049303</v>
+        <v>0.04769410544885844</v>
       </c>
       <c r="E20">
-        <v>0.1253789733241595</v>
+        <v>0.02188427044644126</v>
       </c>
       <c r="F20">
-        <v>1.160020681558706</v>
+        <v>1.423422275566537</v>
       </c>
       <c r="G20">
-        <v>0.7247143322368288</v>
+        <v>1.365943029886751</v>
       </c>
       <c r="H20">
-        <v>0.7048035297646891</v>
+        <v>0.6986032898690269</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1159084152823411</v>
+        <v>0.014864837418191</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.435709218909807</v>
+        <v>3.793295709094537</v>
       </c>
       <c r="N20">
-        <v>2.333073462815321</v>
+        <v>5.680016010569602</v>
       </c>
       <c r="O20">
-        <v>2.859336355031019</v>
+        <v>4.312263341285927</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07733779122060014</v>
+        <v>0.2531407769233454</v>
       </c>
       <c r="D21">
-        <v>0.1842414764885731</v>
+        <v>0.04573352227458471</v>
       </c>
       <c r="E21">
-        <v>0.1229297077635598</v>
+        <v>0.01902422861583064</v>
       </c>
       <c r="F21">
-        <v>1.190414478869528</v>
+        <v>1.598362534845819</v>
       </c>
       <c r="G21">
-        <v>0.7632743474262043</v>
+        <v>1.54918303242286</v>
       </c>
       <c r="H21">
-        <v>0.7176340889106143</v>
+        <v>0.7776688758485193</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1129260055200527</v>
+        <v>0.01157008043490393</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.58468373099096</v>
+        <v>4.264344114299561</v>
       </c>
       <c r="N21">
-        <v>2.542026071143141</v>
+        <v>6.317947501568312</v>
       </c>
       <c r="O21">
-        <v>2.968374002357393</v>
+        <v>4.866761097308029</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08257745961650187</v>
+        <v>0.2733733817589723</v>
       </c>
       <c r="D22">
-        <v>0.1829372060391687</v>
+        <v>0.04456926802522432</v>
       </c>
       <c r="E22">
-        <v>0.1213958674025712</v>
+        <v>0.01731311506117983</v>
       </c>
       <c r="F22">
-        <v>1.210965980376528</v>
+        <v>1.716278157205451</v>
       </c>
       <c r="G22">
-        <v>0.788914954164909</v>
+        <v>1.672092363241092</v>
       </c>
       <c r="H22">
-        <v>0.7263794769361311</v>
+        <v>0.8309681978884669</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1110599072491771</v>
+        <v>0.009655355037015756</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.681823922277346</v>
+        <v>4.572550141396732</v>
       </c>
       <c r="N22">
-        <v>2.678623759850495</v>
+        <v>6.736209825635854</v>
       </c>
       <c r="O22">
-        <v>3.041308386852393</v>
+        <v>5.239228464562473</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07977943895765804</v>
+        <v>0.2625423926674557</v>
       </c>
       <c r="D23">
-        <v>0.1836275530203118</v>
+        <v>0.04517957749380841</v>
       </c>
       <c r="E23">
-        <v>0.1222083752983811</v>
+        <v>0.0182112820910274</v>
       </c>
       <c r="F23">
-        <v>1.199934179997967</v>
+        <v>1.65299221757607</v>
       </c>
       <c r="G23">
-        <v>0.7751896912211862</v>
+        <v>1.606181782830475</v>
       </c>
       <c r="H23">
-        <v>0.7216789205386362</v>
+        <v>0.8023618546300781</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1120482555344404</v>
+        <v>0.01065434626483386</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.629999704804064</v>
+        <v>4.408014192053358</v>
       </c>
       <c r="N23">
-        <v>2.605717251639078</v>
+        <v>6.512841973768445</v>
       </c>
       <c r="O23">
-        <v>3.00222845273214</v>
+        <v>5.039442377023136</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06921530612642357</v>
+        <v>0.2221884432744332</v>
       </c>
       <c r="D24">
-        <v>0.1863688035951654</v>
+        <v>0.04772804888458992</v>
       </c>
       <c r="E24">
-        <v>0.1254201322951725</v>
+        <v>0.02193355058087842</v>
       </c>
       <c r="F24">
-        <v>1.15953547517924</v>
+        <v>1.420618196939245</v>
       </c>
       <c r="G24">
-        <v>0.7240914661032036</v>
+        <v>1.362996285374834</v>
       </c>
       <c r="H24">
-        <v>0.7045998853408548</v>
+        <v>0.697336131131209</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1159585589210437</v>
+        <v>0.01492247799849888</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.433270740340461</v>
+        <v>3.78560071588133</v>
       </c>
       <c r="N24">
-        <v>2.329659160076858</v>
+        <v>5.669609559376909</v>
       </c>
       <c r="O24">
-        <v>2.857582307385712</v>
+        <v>4.303354974143247</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05788880027417065</v>
+        <v>0.179808475959149</v>
       </c>
       <c r="D25">
-        <v>0.189596197388342</v>
+        <v>0.05094546009423162</v>
       </c>
       <c r="E25">
-        <v>0.1291706874114815</v>
+        <v>0.0265684017128085</v>
       </c>
       <c r="F25">
-        <v>1.118891818592445</v>
+        <v>1.183067602929285</v>
       </c>
       <c r="G25">
-        <v>0.6708416405862749</v>
+        <v>1.112049057740421</v>
       </c>
       <c r="H25">
-        <v>0.6877174018005974</v>
+        <v>0.5900239264463778</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1205309636830596</v>
+        <v>0.02044659863870901</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.220198960981151</v>
+        <v>3.114939496569804</v>
       </c>
       <c r="N25">
-        <v>2.032184207337934</v>
+        <v>4.764761297340954</v>
       </c>
       <c r="O25">
-        <v>2.708685973923366</v>
+        <v>3.545918719794827</v>
       </c>
     </row>
   </sheetData>
